--- a/dataanalysis/data/predictions/1200/09161142_1144.xlsx
+++ b/dataanalysis/data/predictions/1200/09161142_1144.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="175">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-16</t>
   </si>
   <si>
@@ -536,12 +539,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -899,13 +896,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,19 +1005,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.13</v>
@@ -1038,7 +1038,7 @@
         <v>114781.96</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -1080,10 +1080,25 @@
         <v>-1.14</v>
       </c>
       <c r="X2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y2">
+        <v>-1.25</v>
+      </c>
+      <c r="Z2">
+        <v>15.28</v>
+      </c>
+      <c r="AA2">
+        <v>1.26</v>
       </c>
       <c r="AC2" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1091,22 +1106,25 @@
       <c r="AG2">
         <v>7.112626552581787</v>
       </c>
-      <c r="AH2" t="s">
-        <v>174</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1124,7 +1142,7 @@
         <v>434655.39</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1166,10 +1184,25 @@
         <v>2.1</v>
       </c>
       <c r="X3" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y3">
+        <v>5.9</v>
+      </c>
+      <c r="Z3">
+        <v>73</v>
+      </c>
+      <c r="AA3">
+        <v>12.45</v>
       </c>
       <c r="AC3" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1177,22 +1210,25 @@
       <c r="AG3">
         <v>9.042089462280273</v>
       </c>
-      <c r="AH3" t="s">
-        <v>174</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>17.87</v>
@@ -1210,7 +1246,7 @@
         <v>248472.12</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1252,10 +1288,25 @@
         <v>-0.44</v>
       </c>
       <c r="X4" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y4">
+        <v>-0.26</v>
+      </c>
+      <c r="Z4">
+        <v>8.19</v>
+      </c>
+      <c r="AA4">
+        <v>4.33</v>
       </c>
       <c r="AC4" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1263,22 +1314,25 @@
       <c r="AG4">
         <v>0.868613064289093</v>
       </c>
-      <c r="AH4" t="s">
-        <v>174</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>1.96</v>
@@ -1296,7 +1350,7 @@
         <v>147230.57</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>14</v>
@@ -1338,10 +1392,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X5" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y5">
+        <v>2.36</v>
+      </c>
+      <c r="Z5">
+        <v>89.19</v>
+      </c>
+      <c r="AA5">
+        <v>6.37</v>
       </c>
       <c r="AC5" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1349,22 +1418,25 @@
       <c r="AG5">
         <v>0.9166974425315857</v>
       </c>
-      <c r="AH5" t="s">
-        <v>174</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300085</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4.71</v>
@@ -1382,7 +1454,7 @@
         <v>306633.19</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1423,8 +1495,23 @@
       <c r="W6">
         <v>0.62</v>
       </c>
+      <c r="Y6">
+        <v>2.82</v>
+      </c>
+      <c r="Z6">
+        <v>61.87</v>
+      </c>
+      <c r="AA6">
+        <v>8.75</v>
+      </c>
       <c r="AC6" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1432,22 +1519,25 @@
       <c r="AG6">
         <v>-0.9919977784156799</v>
       </c>
-      <c r="AH6" t="s">
-        <v>174</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300237</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-4.27</v>
@@ -1465,7 +1555,7 @@
         <v>60712.92</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>14</v>
@@ -1507,10 +1597,25 @@
         <v>-0.36</v>
       </c>
       <c r="X7" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y7">
+        <v>0.53</v>
+      </c>
+      <c r="Z7">
+        <v>3.9</v>
+      </c>
+      <c r="AA7">
+        <v>2.36</v>
       </c>
       <c r="AC7" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1518,22 +1623,25 @@
       <c r="AG7">
         <v>7.448696613311768</v>
       </c>
-      <c r="AH7" t="s">
-        <v>174</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300252</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>5.54</v>
@@ -1551,7 +1659,7 @@
         <v>202062.58</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1593,10 +1701,25 @@
         <v>-0.03</v>
       </c>
       <c r="X8" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y8">
+        <v>-1.67</v>
+      </c>
+      <c r="Z8">
+        <v>16.61</v>
+      </c>
+      <c r="AA8">
+        <v>1.4</v>
       </c>
       <c r="AC8" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1604,22 +1727,25 @@
       <c r="AG8">
         <v>7.646721363067627</v>
       </c>
-      <c r="AH8" t="s">
-        <v>174</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.05</v>
@@ -1637,7 +1763,7 @@
         <v>1037026.2</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1679,10 +1805,25 @@
         <v>0.13</v>
       </c>
       <c r="X9" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y9">
+        <v>0.48</v>
+      </c>
+      <c r="Z9">
+        <v>144.24</v>
+      </c>
+      <c r="AA9">
+        <v>1.43</v>
       </c>
       <c r="AC9" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1690,22 +1831,25 @@
       <c r="AG9">
         <v>0.8010388612747192</v>
       </c>
-      <c r="AH9" t="s">
-        <v>174</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300290</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-0.03</v>
@@ -1723,7 +1867,7 @@
         <v>119193.63</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1765,10 +1909,25 @@
         <v>-0.12</v>
       </c>
       <c r="X10" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y10">
+        <v>-1.22</v>
+      </c>
+      <c r="Z10">
+        <v>32.28</v>
+      </c>
+      <c r="AA10">
+        <v>3.07</v>
       </c>
       <c r="AC10" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1776,22 +1935,25 @@
       <c r="AG10">
         <v>2.80938458442688</v>
       </c>
-      <c r="AH10" t="s">
-        <v>174</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300324</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.97</v>
@@ -1809,7 +1971,7 @@
         <v>110167.96</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1851,10 +2013,25 @@
         <v>-0.36</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y11">
+        <v>3.54</v>
+      </c>
+      <c r="Z11">
+        <v>7.81</v>
+      </c>
+      <c r="AA11">
+        <v>6.69</v>
       </c>
       <c r="AC11" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1862,22 +2039,25 @@
       <c r="AG11">
         <v>2.861218690872192</v>
       </c>
-      <c r="AH11" t="s">
-        <v>174</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300331</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.88</v>
@@ -1895,7 +2075,7 @@
         <v>88428.69</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -1937,10 +2117,25 @@
         <v>-0.49</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y12">
+        <v>14.66</v>
+      </c>
+      <c r="Z12">
+        <v>40.26</v>
+      </c>
+      <c r="AA12">
+        <v>20.04</v>
       </c>
       <c r="AC12" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1948,22 +2143,25 @@
       <c r="AG12">
         <v>0.4426552951335907</v>
       </c>
-      <c r="AH12" t="s">
-        <v>174</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300363</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.13</v>
@@ -1981,7 +2179,7 @@
         <v>60500.28</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -2023,10 +2221,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y13">
+        <v>-0.93</v>
+      </c>
+      <c r="Z13">
+        <v>28.35</v>
+      </c>
+      <c r="AA13">
+        <v>1.32</v>
       </c>
       <c r="AC13" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2034,22 +2247,25 @@
       <c r="AG13">
         <v>37.64937210083008</v>
       </c>
-      <c r="AH13" t="s">
-        <v>174</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300428</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>4.42</v>
@@ -2067,7 +2283,7 @@
         <v>66388.10000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2108,8 +2324,23 @@
       <c r="W14">
         <v>0.19</v>
       </c>
+      <c r="Y14">
+        <v>-3.7</v>
+      </c>
+      <c r="Z14">
+        <v>25.41</v>
+      </c>
+      <c r="AA14">
+        <v>-0.51</v>
+      </c>
       <c r="AC14" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2117,22 +2348,25 @@
       <c r="AG14">
         <v>3.213592290878296</v>
       </c>
-      <c r="AH14" t="s">
-        <v>174</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300457</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-4.83</v>
@@ -2150,7 +2384,7 @@
         <v>150413.82</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -2192,10 +2426,25 @@
         <v>-0.61</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y15">
+        <v>5.94</v>
+      </c>
+      <c r="Z15">
+        <v>37.9</v>
+      </c>
+      <c r="AA15">
+        <v>15.16</v>
       </c>
       <c r="AC15" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2203,22 +2452,25 @@
       <c r="AG15">
         <v>1.964633464813232</v>
       </c>
-      <c r="AH15" t="s">
-        <v>174</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300469</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.6</v>
@@ -2236,7 +2488,7 @@
         <v>85064.25999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>19</v>
@@ -2278,10 +2530,25 @@
         <v>-0.13</v>
       </c>
       <c r="X16" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y16">
+        <v>10.81</v>
+      </c>
+      <c r="Z16">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AA16">
+        <v>15.34</v>
       </c>
       <c r="AC16" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2289,22 +2556,25 @@
       <c r="AG16">
         <v>3.446393251419067</v>
       </c>
-      <c r="AH16" t="s">
-        <v>174</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300475</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.65</v>
@@ -2322,7 +2592,7 @@
         <v>271806.16</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2364,10 +2634,25 @@
         <v>-0.17</v>
       </c>
       <c r="X17" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y17">
+        <v>4.31</v>
+      </c>
+      <c r="Z17">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA17">
+        <v>6.52</v>
       </c>
       <c r="AC17" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2375,22 +2660,25 @@
       <c r="AG17">
         <v>1.734767198562622</v>
       </c>
-      <c r="AH17" t="s">
-        <v>174</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300476</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>4.96</v>
@@ -2408,7 +2696,7 @@
         <v>1506696.19</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18">
         <v>70</v>
@@ -2450,10 +2738,25 @@
         <v>-0.08</v>
       </c>
       <c r="X18" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y18">
+        <v>-3.78</v>
+      </c>
+      <c r="Z18">
+        <v>350.99</v>
+      </c>
+      <c r="AA18">
+        <v>1.47</v>
       </c>
       <c r="AC18" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2461,22 +2764,25 @@
       <c r="AG18">
         <v>-9.285800933837891</v>
       </c>
-      <c r="AH18" t="s">
-        <v>174</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300478</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.55</v>
@@ -2494,7 +2800,7 @@
         <v>48341.44</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2536,10 +2842,25 @@
         <v>-0.06</v>
       </c>
       <c r="X19" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y19">
+        <v>0.19</v>
+      </c>
+      <c r="Z19">
+        <v>27.7</v>
+      </c>
+      <c r="AA19">
+        <v>4.92</v>
       </c>
       <c r="AC19" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2547,22 +2868,25 @@
       <c r="AG19">
         <v>5.179413795471191</v>
       </c>
-      <c r="AH19" t="s">
-        <v>174</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300503</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>3.68</v>
@@ -2580,7 +2904,7 @@
         <v>52728.87</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2621,8 +2945,23 @@
       <c r="W20">
         <v>0.49</v>
       </c>
+      <c r="Y20">
+        <v>5.95</v>
+      </c>
+      <c r="Z20">
+        <v>36.88</v>
+      </c>
+      <c r="AA20">
+        <v>14.78</v>
+      </c>
       <c r="AC20" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2630,22 +2969,25 @@
       <c r="AG20">
         <v>4.292628765106201</v>
       </c>
-      <c r="AH20" t="s">
-        <v>174</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300528</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-4.25</v>
@@ -2663,7 +3005,7 @@
         <v>106297.73</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2705,10 +3047,25 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="X21" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y21">
+        <v>-7.38</v>
+      </c>
+      <c r="Z21">
+        <v>30.5</v>
+      </c>
+      <c r="AA21">
+        <v>-1.07</v>
       </c>
       <c r="AC21" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2716,22 +3073,25 @@
       <c r="AG21">
         <v>2.604939222335815</v>
       </c>
-      <c r="AH21" t="s">
-        <v>174</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300680</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>2.68</v>
@@ -2749,7 +3109,7 @@
         <v>94314.13</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2791,10 +3151,25 @@
         <v>0.63</v>
       </c>
       <c r="X22" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y22">
+        <v>6.68</v>
+      </c>
+      <c r="Z22">
+        <v>67.5</v>
+      </c>
+      <c r="AA22">
+        <v>9.4</v>
       </c>
       <c r="AC22" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2802,22 +3177,25 @@
       <c r="AG22">
         <v>2.619722366333008</v>
       </c>
-      <c r="AH22" t="s">
-        <v>174</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300684</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>12.42</v>
@@ -2835,7 +3213,7 @@
         <v>169981.39</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2877,10 +3255,25 @@
         <v>0.32</v>
       </c>
       <c r="X23" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y23">
+        <v>14.09</v>
+      </c>
+      <c r="Z23">
+        <v>46.9</v>
+      </c>
+      <c r="AA23">
+        <v>18.85</v>
       </c>
       <c r="AC23" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2888,22 +3281,25 @@
       <c r="AG23">
         <v>3.002991914749146</v>
       </c>
-      <c r="AH23" t="s">
-        <v>174</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300727</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>17.66</v>
@@ -2921,7 +3317,7 @@
         <v>94789.88</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24">
         <v>23</v>
@@ -2962,8 +3358,23 @@
       <c r="W24">
         <v>0.75</v>
       </c>
+      <c r="Y24">
+        <v>-6.47</v>
+      </c>
+      <c r="Z24">
+        <v>46.35</v>
+      </c>
+      <c r="AA24">
+        <v>-3.09</v>
+      </c>
       <c r="AC24" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2971,22 +3382,25 @@
       <c r="AG24">
         <v>-2.458547353744507</v>
       </c>
-      <c r="AH24" t="s">
-        <v>174</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300757</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.87</v>
@@ -3004,7 +3418,7 @@
         <v>157236.13</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25">
         <v>17</v>
@@ -3046,10 +3460,25 @@
         <v>0.12</v>
       </c>
       <c r="X25" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y25">
+        <v>-1.8</v>
+      </c>
+      <c r="Z25">
+        <v>299</v>
+      </c>
+      <c r="AA25">
+        <v>3.72</v>
       </c>
       <c r="AC25" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3057,22 +3486,25 @@
       <c r="AG25">
         <v>6.81293249130249</v>
       </c>
-      <c r="AH25" t="s">
-        <v>174</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300806</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.07</v>
@@ -3090,7 +3522,7 @@
         <v>29099.32</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3131,8 +3563,23 @@
       <c r="W26">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Y26">
+        <v>3.36</v>
+      </c>
+      <c r="Z26">
+        <v>27.78</v>
+      </c>
+      <c r="AA26">
+        <v>7.05</v>
+      </c>
       <c r="AC26" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -3140,22 +3587,25 @@
       <c r="AG26">
         <v>7.540977001190186</v>
       </c>
-      <c r="AH26" t="s">
-        <v>174</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300814</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>3.03</v>
@@ -3173,7 +3623,7 @@
         <v>67141.61</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3215,10 +3665,25 @@
         <v>0.59</v>
       </c>
       <c r="X27" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y27">
+        <v>-2.15</v>
+      </c>
+      <c r="Z27">
+        <v>53.13</v>
+      </c>
+      <c r="AA27">
+        <v>4.92</v>
       </c>
       <c r="AC27" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3226,22 +3691,25 @@
       <c r="AG27">
         <v>6.884271621704102</v>
       </c>
-      <c r="AH27" t="s">
-        <v>174</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300852</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.69</v>
@@ -3259,7 +3727,7 @@
         <v>40180.82</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3301,10 +3769,25 @@
         <v>0.12</v>
       </c>
       <c r="X28" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y28">
+        <v>6.35</v>
+      </c>
+      <c r="Z28">
+        <v>48.86</v>
+      </c>
+      <c r="AA28">
+        <v>7.79</v>
       </c>
       <c r="AC28" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3312,22 +3795,25 @@
       <c r="AG28">
         <v>7.204662322998047</v>
       </c>
-      <c r="AH28" t="s">
-        <v>174</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300857</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>12.81</v>
@@ -3345,7 +3831,7 @@
         <v>358409.01</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29">
         <v>18</v>
@@ -3387,10 +3873,25 @@
         <v>0.33</v>
       </c>
       <c r="X29" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y29">
+        <v>6.76</v>
+      </c>
+      <c r="Z29">
+        <v>167.77</v>
+      </c>
+      <c r="AA29">
+        <v>7.14</v>
       </c>
       <c r="AC29" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3398,22 +3899,25 @@
       <c r="AG29">
         <v>3.103164911270142</v>
       </c>
-      <c r="AH29" t="s">
-        <v>174</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300859</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-1.68</v>
@@ -3431,7 +3935,7 @@
         <v>73524.62</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3473,10 +3977,25 @@
         <v>-0.89</v>
       </c>
       <c r="X30" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y30">
+        <v>-3.95</v>
+      </c>
+      <c r="Z30">
+        <v>52.48</v>
+      </c>
+      <c r="AA30">
+        <v>4.54</v>
       </c>
       <c r="AC30" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3484,22 +4003,25 @@
       <c r="AG30">
         <v>0.5015444755554199</v>
       </c>
-      <c r="AH30" t="s">
-        <v>174</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300918</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>11.94</v>
@@ -3517,7 +4039,7 @@
         <v>124150.22</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3559,10 +4081,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X31" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y31">
+        <v>-4.35</v>
+      </c>
+      <c r="Z31">
+        <v>26.2</v>
+      </c>
+      <c r="AA31">
+        <v>-0.91</v>
       </c>
       <c r="AC31" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3570,22 +4107,25 @@
       <c r="AG31">
         <v>8.115402221679688</v>
       </c>
-      <c r="AH31" t="s">
-        <v>174</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300953</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>4.62</v>
@@ -3603,7 +4143,7 @@
         <v>129833.02</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K32">
         <v>15</v>
@@ -3645,10 +4185,25 @@
         <v>-0.01</v>
       </c>
       <c r="X32" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y32">
+        <v>0.01</v>
+      </c>
+      <c r="Z32">
+        <v>181</v>
+      </c>
+      <c r="AA32">
+        <v>8.18</v>
       </c>
       <c r="AC32" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3656,22 +4211,25 @@
       <c r="AG32">
         <v>4.814516544342041</v>
       </c>
-      <c r="AH32" t="s">
-        <v>174</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300959</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>20.01</v>
@@ -3689,7 +4247,7 @@
         <v>62827.07</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3730,8 +4288,23 @@
       <c r="W33">
         <v>1</v>
       </c>
+      <c r="Y33">
+        <v>18.98</v>
+      </c>
+      <c r="Z33">
+        <v>82.7</v>
+      </c>
+      <c r="AA33">
+        <v>19.99</v>
+      </c>
       <c r="AC33" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3739,22 +4312,25 @@
       <c r="AG33">
         <v>17.13597869873047</v>
       </c>
-      <c r="AH33" t="s">
-        <v>175</v>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300990</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3772,7 +4348,7 @@
         <v>38611.22</v>
       </c>
       <c r="J34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3814,10 +4390,25 @@
         <v>0.19</v>
       </c>
       <c r="X34" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y34">
+        <v>1.38</v>
+      </c>
+      <c r="Z34">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="AA34">
+        <v>5.02</v>
       </c>
       <c r="AC34" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3825,22 +4416,25 @@
       <c r="AG34">
         <v>2.950442790985107</v>
       </c>
-      <c r="AH34" t="s">
-        <v>174</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301076</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.55</v>
@@ -3858,7 +4452,7 @@
         <v>77557.77</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K35">
         <v>7</v>
@@ -3900,10 +4494,25 @@
         <v>-0.7</v>
       </c>
       <c r="X35" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y35">
+        <v>1.92</v>
+      </c>
+      <c r="Z35">
+        <v>66.48</v>
+      </c>
+      <c r="AA35">
+        <v>7.33</v>
       </c>
       <c r="AC35" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3911,22 +4520,25 @@
       <c r="AG35">
         <v>3.614535570144653</v>
       </c>
-      <c r="AH35" t="s">
-        <v>174</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301123</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.38</v>
@@ -3944,7 +4556,7 @@
         <v>47267.59</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3986,10 +4598,25 @@
         <v>0.23</v>
       </c>
       <c r="X36" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y36">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="Z36">
+        <v>54.9</v>
+      </c>
+      <c r="AA36">
+        <v>11.63</v>
       </c>
       <c r="AC36" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3997,22 +4624,25 @@
       <c r="AG36">
         <v>-0.7533251047134399</v>
       </c>
-      <c r="AH36" t="s">
-        <v>174</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301150</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-6.49</v>
@@ -4030,7 +4660,7 @@
         <v>90852.97</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K37">
         <v>11</v>
@@ -4072,10 +4702,25 @@
         <v>-0.51</v>
       </c>
       <c r="X37" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y37">
+        <v>-1.6</v>
+      </c>
+      <c r="Z37">
+        <v>42.87</v>
+      </c>
+      <c r="AA37">
+        <v>4.38</v>
       </c>
       <c r="AC37" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4083,22 +4728,25 @@
       <c r="AG37">
         <v>-0.3725157082080841</v>
       </c>
-      <c r="AH37" t="s">
-        <v>174</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301307</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -4116,7 +4764,7 @@
         <v>99177.48</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38">
         <v>5</v>
@@ -4157,8 +4805,23 @@
       <c r="W38">
         <v>0.63</v>
       </c>
+      <c r="Y38">
+        <v>-3.17</v>
+      </c>
+      <c r="Z38">
+        <v>42.12</v>
+      </c>
+      <c r="AA38">
+        <v>4.31</v>
+      </c>
       <c r="AC38" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4166,22 +4829,25 @@
       <c r="AG38">
         <v>1.576170206069946</v>
       </c>
-      <c r="AH38" t="s">
-        <v>175</v>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301377</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.49</v>
@@ -4199,7 +4865,7 @@
         <v>53994.93</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4241,10 +4907,25 @@
         <v>0.31</v>
       </c>
       <c r="X39" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y39">
+        <v>-1.27</v>
+      </c>
+      <c r="Z39">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="AA39">
+        <v>-0.11</v>
       </c>
       <c r="AC39" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4252,22 +4933,25 @@
       <c r="AG39">
         <v>4.382065296173096</v>
       </c>
-      <c r="AH39" t="s">
-        <v>174</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301389</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>6.53</v>
@@ -4285,7 +4969,7 @@
         <v>117147.88</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4327,10 +5011,25 @@
         <v>0.75</v>
       </c>
       <c r="X40" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y40">
+        <v>-4.38</v>
+      </c>
+      <c r="Z40">
+        <v>70.2</v>
+      </c>
+      <c r="AA40">
+        <v>-0.16</v>
       </c>
       <c r="AC40" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4338,22 +5037,25 @@
       <c r="AG40">
         <v>5.038042545318604</v>
       </c>
-      <c r="AH40" t="s">
-        <v>174</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301413</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>10.9</v>
@@ -4371,7 +5073,7 @@
         <v>85520.14999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41">
         <v>18</v>
@@ -4413,10 +5115,25 @@
         <v>0.61</v>
       </c>
       <c r="X41" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y41">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Z41">
+        <v>200.15</v>
+      </c>
+      <c r="AA41">
+        <v>20.25</v>
       </c>
       <c r="AC41" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4424,22 +5141,25 @@
       <c r="AG41">
         <v>3.483418941497803</v>
       </c>
-      <c r="AH41" t="s">
-        <v>174</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301488</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.09</v>
@@ -4457,7 +5177,7 @@
         <v>149077.17</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K42">
         <v>15</v>
@@ -4499,10 +5219,25 @@
         <v>-2.03</v>
       </c>
       <c r="X42" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y42">
+        <v>14.22</v>
+      </c>
+      <c r="Z42">
+        <v>222.22</v>
+      </c>
+      <c r="AA42">
+        <v>17.58</v>
       </c>
       <c r="AC42" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4510,22 +5245,25 @@
       <c r="AG42">
         <v>-5.839519500732422</v>
       </c>
-      <c r="AH42" t="s">
-        <v>174</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301489</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>4.14</v>
@@ -4543,7 +5281,7 @@
         <v>57560.69</v>
       </c>
       <c r="J43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K43">
         <v>6</v>
@@ -4585,10 +5323,25 @@
         <v>0.71</v>
       </c>
       <c r="X43" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y43">
+        <v>-3.32</v>
+      </c>
+      <c r="Z43">
+        <v>227</v>
+      </c>
+      <c r="AA43">
+        <v>0.84</v>
       </c>
       <c r="AC43" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4596,22 +5349,25 @@
       <c r="AG43">
         <v>0.3809754848480225</v>
       </c>
-      <c r="AH43" t="s">
-        <v>174</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301600</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.35</v>
@@ -4629,7 +5385,7 @@
         <v>43519.58</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4671,10 +5427,25 @@
         <v>0.2</v>
       </c>
       <c r="X44" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y44">
+        <v>0.87</v>
+      </c>
+      <c r="Z44">
+        <v>156</v>
+      </c>
+      <c r="AA44">
+        <v>5.63</v>
       </c>
       <c r="AC44" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4682,22 +5453,25 @@
       <c r="AG44">
         <v>-0.1717838048934937</v>
       </c>
-      <c r="AH44" t="s">
-        <v>174</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688028</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-2.96</v>
@@ -4715,7 +5489,7 @@
         <v>47854.56</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4756,8 +5530,23 @@
       <c r="W45">
         <v>-0.95</v>
       </c>
+      <c r="Y45">
+        <v>-3.06</v>
+      </c>
+      <c r="Z45">
+        <v>43.9</v>
+      </c>
+      <c r="AA45">
+        <v>0.55</v>
+      </c>
       <c r="AC45" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4765,22 +5554,25 @@
       <c r="AG45">
         <v>0.8819487690925598</v>
       </c>
-      <c r="AH45" t="s">
-        <v>174</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688041</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>7.84</v>
@@ -4798,7 +5590,7 @@
         <v>1148877.72</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4840,10 +5632,25 @@
         <v>0.01</v>
       </c>
       <c r="X46" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="Y46">
+        <v>-1.35</v>
+      </c>
+      <c r="Z46">
+        <v>244.97</v>
+      </c>
+      <c r="AA46">
+        <v>-1.88</v>
       </c>
       <c r="AC46" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4851,22 +5658,25 @@
       <c r="AG46">
         <v>12.23091602325439</v>
       </c>
-      <c r="AH46" t="s">
-        <v>174</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688141</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>1.71</v>
@@ -4884,7 +5694,7 @@
         <v>56722.38</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -4926,10 +5736,25 @@
         <v>0.04</v>
       </c>
       <c r="X47" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="Y47">
+        <v>-3.26</v>
+      </c>
+      <c r="Z47">
+        <v>52.64</v>
+      </c>
+      <c r="AA47">
+        <v>-0.47</v>
       </c>
       <c r="AC47" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4937,22 +5762,25 @@
       <c r="AG47">
         <v>1.451009392738342</v>
       </c>
-      <c r="AH47" t="s">
-        <v>174</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688147</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-2.25</v>
@@ -4970,7 +5798,7 @@
         <v>34789.79</v>
       </c>
       <c r="J48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K48">
         <v>22</v>
@@ -5011,8 +5839,23 @@
       <c r="W48">
         <v>-0.12</v>
       </c>
+      <c r="Y48">
+        <v>3.02</v>
+      </c>
+      <c r="Z48">
+        <v>50.99</v>
+      </c>
+      <c r="AA48">
+        <v>8.699999999999999</v>
+      </c>
       <c r="AC48" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5020,22 +5863,25 @@
       <c r="AG48">
         <v>-13.2101001739502</v>
       </c>
-      <c r="AH48" t="s">
-        <v>174</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688167</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-1.87</v>
@@ -5053,7 +5899,7 @@
         <v>80502.35000000001</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K49">
         <v>8</v>
@@ -5095,10 +5941,25 @@
         <v>-0.49</v>
       </c>
       <c r="X49" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y49">
+        <v>6.65</v>
+      </c>
+      <c r="Z49">
+        <v>181.5</v>
+      </c>
+      <c r="AA49">
+        <v>15.24</v>
       </c>
       <c r="AC49" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5106,22 +5967,25 @@
       <c r="AG49">
         <v>0.6198780536651611</v>
       </c>
-      <c r="AH49" t="s">
-        <v>174</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688195</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.2</v>
@@ -5139,7 +6003,7 @@
         <v>98033.35000000001</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K50">
         <v>22</v>
@@ -5181,10 +6045,25 @@
         <v>-0.24</v>
       </c>
       <c r="X50" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y50">
+        <v>-0.84</v>
+      </c>
+      <c r="Z50">
+        <v>116.6</v>
+      </c>
+      <c r="AA50">
+        <v>4.74</v>
       </c>
       <c r="AC50" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5192,22 +6071,25 @@
       <c r="AG50">
         <v>-0.3210448026657104</v>
       </c>
-      <c r="AH50" t="s">
-        <v>174</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688202</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-2.55</v>
@@ -5225,7 +6107,7 @@
         <v>39868.02</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5267,10 +6149,25 @@
         <v>-0.22</v>
       </c>
       <c r="X51" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Y51">
+        <v>-5.41</v>
+      </c>
+      <c r="Z51">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>2.4</v>
       </c>
       <c r="AC51" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5278,22 +6175,25 @@
       <c r="AG51">
         <v>8.259494781494141</v>
       </c>
-      <c r="AH51" t="s">
-        <v>174</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688228</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-1.09</v>
@@ -5311,7 +6211,7 @@
         <v>61609.73</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5353,10 +6253,25 @@
         <v>-0.01</v>
       </c>
       <c r="X52" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Y52">
+        <v>0.55</v>
+      </c>
+      <c r="Z52">
+        <v>185</v>
+      </c>
+      <c r="AA52">
+        <v>2.21</v>
       </c>
       <c r="AC52" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5364,22 +6279,25 @@
       <c r="AG52">
         <v>7.011733055114746</v>
       </c>
-      <c r="AH52" t="s">
-        <v>174</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688256</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.15</v>
@@ -5397,7 +6315,7 @@
         <v>1020331.62</v>
       </c>
       <c r="J53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5439,10 +6357,25 @@
         <v>0.01</v>
       </c>
       <c r="X53" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y53">
+        <v>0.13</v>
+      </c>
+      <c r="Z53">
+        <v>1470.02</v>
+      </c>
+      <c r="AA53">
+        <v>0.92</v>
       </c>
       <c r="AC53" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5450,22 +6383,25 @@
       <c r="AG53">
         <v>6.248867511749268</v>
       </c>
-      <c r="AH53" t="s">
-        <v>175</v>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688388</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>3.42</v>
@@ -5483,7 +6419,7 @@
         <v>74582.96000000001</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K54">
         <v>11</v>
@@ -5525,10 +6461,25 @@
         <v>0.57</v>
       </c>
       <c r="X54" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Y54">
+        <v>-0.58</v>
+      </c>
+      <c r="Z54">
+        <v>36.36</v>
+      </c>
+      <c r="AA54">
+        <v>8.210000000000001</v>
       </c>
       <c r="AC54" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5536,22 +6487,25 @@
       <c r="AG54">
         <v>3.184758424758911</v>
       </c>
-      <c r="AH54" t="s">
-        <v>174</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688411</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>5.85</v>
@@ -5569,7 +6523,7 @@
         <v>72713.96000000001</v>
       </c>
       <c r="J55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K55">
         <v>11</v>
@@ -5611,10 +6565,25 @@
         <v>-0.18</v>
       </c>
       <c r="X55" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="Y55">
+        <v>0.67</v>
+      </c>
+      <c r="Z55">
+        <v>218</v>
+      </c>
+      <c r="AA55">
+        <v>3.86</v>
       </c>
       <c r="AC55" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5622,22 +6591,25 @@
       <c r="AG55">
         <v>-4.247204780578613</v>
       </c>
-      <c r="AH55" t="s">
-        <v>174</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688498</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>2.49</v>
@@ -5655,7 +6627,7 @@
         <v>113854.85</v>
       </c>
       <c r="J56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K56">
         <v>5</v>
@@ -5697,10 +6669,25 @@
         <v>0.21</v>
       </c>
       <c r="X56" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Y56">
+        <v>2.41</v>
+      </c>
+      <c r="Z56">
+        <v>388</v>
+      </c>
+      <c r="AA56">
+        <v>3.69</v>
       </c>
       <c r="AC56" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5708,22 +6695,25 @@
       <c r="AG56">
         <v>6.277902126312256</v>
       </c>
-      <c r="AH56" t="s">
-        <v>174</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688521</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>2.6</v>
@@ -5741,7 +6731,7 @@
         <v>351831.4</v>
       </c>
       <c r="J57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -5783,10 +6773,25 @@
         <v>0.02</v>
       </c>
       <c r="X57" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y57">
+        <v>-4.31</v>
+      </c>
+      <c r="Z57">
+        <v>180.55</v>
+      </c>
+      <c r="AA57">
+        <v>-2.94</v>
       </c>
       <c r="AC57" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5794,22 +6799,25 @@
       <c r="AG57">
         <v>3.868642091751099</v>
       </c>
-      <c r="AH57" t="s">
-        <v>174</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688629</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.97</v>
@@ -5827,7 +6835,7 @@
         <v>89195.03999999999</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -5869,10 +6877,25 @@
         <v>0.5</v>
       </c>
       <c r="X58" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="Y58">
+        <v>-0.44</v>
+      </c>
+      <c r="Z58">
+        <v>90.14</v>
+      </c>
+      <c r="AA58">
+        <v>2.64</v>
       </c>
       <c r="AC58" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5880,22 +6903,25 @@
       <c r="AG58">
         <v>-0.2362828552722931</v>
       </c>
-      <c r="AH58" t="s">
-        <v>174</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688766</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>20</v>
@@ -5913,7 +6939,7 @@
         <v>199451.06</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5954,8 +6980,23 @@
       <c r="W59">
         <v>0.93</v>
       </c>
+      <c r="Y59">
+        <v>-0.46</v>
+      </c>
+      <c r="Z59">
+        <v>114.44</v>
+      </c>
+      <c r="AA59">
+        <v>8.369999999999999</v>
+      </c>
       <c r="AC59" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>1</v>
@@ -5963,8 +7004,11 @@
       <c r="AG59">
         <v>11.78505420684814</v>
       </c>
-      <c r="AH59" t="s">
-        <v>175</v>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
